--- a/Controller.xlsx
+++ b/Controller.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aatish.s\Desktop\TestYantraFramework\HCL_SmartRecruit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18795" windowHeight="5220"/>
+    <workbookView windowWidth="19815" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Attributes</t>
   </si>
@@ -76,23 +71,32 @@
     <t>com.hcl.smartrecruit.testscripts</t>
   </si>
   <si>
+    <t>ApproveAllRequisition</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>ApproveAllRequisition</t>
-  </si>
-  <si>
     <t>CloseRequisition</t>
   </si>
   <si>
     <t>CreateNewRequisition</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,8 +112,152 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,13 +266,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,8 +282,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -143,9 +477,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -154,17 +730,61 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -451,24 +1071,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="15.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -509,7 +1129,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -520,7 +1140,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
@@ -539,24 +1159,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.57142857142857" customWidth="1"/>
+    <col min="2" max="2" width="34.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="44.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="16.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -581,10 +1203,10 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -598,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -612,10 +1234,11 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Controller.xlsx
+++ b/Controller.xlsx
@@ -29,7 +29,7 @@
     <t>Parallel</t>
   </si>
   <si>
-    <t>tests</t>
+    <t>None</t>
   </si>
   <si>
     <t>Use- None/tests</t>
@@ -74,16 +74,16 @@
     <t>ApproveAllRequisition</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>CloseRequisition</t>
+  </si>
+  <si>
+    <t>CreateNewRequisition</t>
+  </si>
+  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>CloseRequisition</t>
-  </si>
-  <si>
-    <t>CreateNewRequisition</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -93,8 +93,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -114,14 +114,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,8 +142,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,7 +181,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,26 +196,18 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,34 +228,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -257,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,13 +284,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,169 +416,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,32 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -552,6 +520,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -567,6 +546,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -578,148 +572,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,7 +1074,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1118,7 +1112,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -1140,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
@@ -1170,7 +1164,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>

--- a/Controller.xlsx
+++ b/Controller.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14835" windowHeight="6435" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="2" r:id="rId1"/>
     <sheet name="Controller" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
   <oleSize ref="A1:H20"/>
 </workbook>
 </file>
@@ -30,6 +30,9 @@
     <t>Parallel</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>Use- None/tests</t>
   </si>
   <si>
@@ -82,16 +85,19 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>tests</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,8 +113,152 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,13 +267,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39991454817346722"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,8 +283,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -142,9 +478,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -153,10 +731,57 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -447,24 +1072,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="15.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -483,90 +1108,92 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.57142857142857" customWidth="1"/>
+    <col min="2" max="2" width="34.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="44.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="16.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -574,13 +1201,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -588,13 +1215,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -602,16 +1229,17 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Controller.xlsx
+++ b/Controller.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7830"/>
+    <workbookView windowWidth="19035" windowHeight="5805" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="2" r:id="rId1"/>
@@ -75,16 +75,16 @@
     <t>ApproveAllRequisition</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>CloseRequisition</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>CloseRequisition</t>
-  </si>
-  <si>
     <t>CreateNewRequisition</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -92,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -111,6 +111,96 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,71 +212,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,8 +235,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,45 +257,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,12 +285,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -303,169 +447,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,15 +482,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -508,6 +493,54 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,30 +560,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -561,166 +570,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,7 +1074,7 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1170,8 +1164,8 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1221,7 +1215,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1232,10 +1226,10 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
